--- a/spreadsheets/Darius.xlsx
+++ b/spreadsheets/Darius.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11104E8-BEB2-4ADF-8E81-882189B4FE03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3EAF40-252B-4D81-9977-C7513AEEFBB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="3480" windowWidth="21600" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="2730" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -271,9 +271,6 @@
     <t>https://na.op.gg/summoner/userName=brown+man+darius</t>
   </si>
   <si>
-    <t>My name is Sam or Brown Man Darius and I'm the best Darius on NA and I've made it to rank 13, 1131LP and gone to Scouting Grounds 2019</t>
-  </si>
-  <si>
     <t>If aatrox keeps his distance and never lets you in range it can be difficult but you need to catch him when he e's into you but this lane gets easier if you have jungle pressure and after 1 kill it should be easy for you.</t>
   </si>
   <si>
@@ -325,31 +322,37 @@
     <t>if ryze takes phase rush there is really nothing you can do besides ask for jungle help.</t>
   </si>
   <si>
-    <t>The matchup is complete RNG depending if trynd gets crits. Never fight level 1-2 maybe a mini trade level 3.</t>
-  </si>
-  <si>
-    <t>get exectioners and mercs and run him down</t>
-  </si>
-  <si>
     <t>avoid getting caught in his cage or his ghouls will eat you alive.</t>
   </si>
   <si>
-    <t>mercs+spectres then all in, take sweeper after level 6 to avoid getting cheesed by shrooms.</t>
-  </si>
-  <si>
     <t>pull him out of his dash and you'll win.</t>
   </si>
   <si>
     <t>skill matchup ask for jungle help to tip in your favor. Whoever dies first will lose the rest of the game. So might as well look for roaming plays if you die.</t>
   </si>
   <si>
-    <t>tabi's first and aim to pull her out of her vault then all in her otherwise ask for jungle help.</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/VR1rGiT.png</t>
-  </si>
-  <si>
     <t>Follow Brown Man Darius for high elo Darius content.</t>
+  </si>
+  <si>
+    <t>My name is Sam or Brown Man Darius and I'm the best Darius on NA. I've made it to rank 13, 1131LP and gone to Scouting Grounds 2019.</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>The matchup is complete RNG depending if trynd gets crits. Never fight level 1-2, maybe a mini trade level 3.</t>
+  </si>
+  <si>
+    <t>get executioners and mercs and run him down</t>
+  </si>
+  <si>
+    <t>mercs + spectres cowl then all in, take sweeper after level 6 to avoid getting cheesed by shrooms.</t>
+  </si>
+  <si>
+    <t>tabis first and aim to pull her out of her vault then all in her otherwise ask for jungle help.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/olbJ2TB.png</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,10 +962,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -970,21 +970,29 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -997,12 +1005,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{64BB5210-E9B1-420A-81DC-6D0D05767D45}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{538FA547-7CBE-43CC-AE92-FEE007F734DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1011,7 +1019,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -1053,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
@@ -1067,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -1081,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
@@ -1106,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>77</v>
@@ -1123,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1145,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1189,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1200,7 +1208,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,7 +1278,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1449,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1476,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/Darius.xlsx
+++ b/spreadsheets/Darius.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3EAF40-252B-4D81-9977-C7513AEEFBB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B63B30F-EAAA-7D44-9042-852762D9DC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="2730" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,6 @@
     <t>Example comment: "Need to play safe until 6. Then, you can call for jungler to set up ganks with your ult."</t>
   </si>
   <si>
-    <t>Brown Man Darius (BMD)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -353,6 +350,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/olbJ2TB.png</t>
+  </si>
+  <si>
+    <t>BrownManDarius</t>
   </si>
 </sst>
 </file>
@@ -872,18 +872,18 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -905,54 +905,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,42 +960,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1022,13 +1022,13 @@
       <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="194" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1047,13 +1047,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1061,13 +1061,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1075,13 +1075,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1089,13 +1089,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1114,16 +1114,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1131,10 +1131,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1153,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1164,10 +1164,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1175,10 +1175,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1186,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1197,10 +1197,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1208,10 +1208,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1227,10 +1227,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1278,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1316,10 +1316,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1327,10 +1327,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1346,10 +1346,10 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1365,10 +1365,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1416,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -1435,10 +1435,10 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -1446,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -1457,10 +1457,10 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/Darius.xlsx
+++ b/spreadsheets/Darius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B63B30F-EAAA-7D44-9042-852762D9DC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29A8E85-A872-4048-AE84-8869B3ECA102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,9 +259,6 @@
     <t/>
   </si>
   <si>
-    <t>twitter.com/BrownManDarius</t>
-  </si>
-  <si>
     <t>https://www.twitch.tv/brownmandarius</t>
   </si>
   <si>
@@ -353,6 +350,9 @@
   </si>
   <si>
     <t>BrownManDarius</t>
+  </si>
+  <si>
+    <t>https://twitter.com/BrownManDarius</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -910,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>71</v>
@@ -923,8 +923,8 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>77</v>
+      <c r="B4" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>72</v>
@@ -934,8 +934,8 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>78</v>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>73</v>
@@ -945,8 +945,8 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>79</v>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>74</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -981,7 +981,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -992,7 +992,7 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1006,11 +1006,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{538FA547-7CBE-43CC-AE92-FEE007F734DD}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{4738A7DA-2ECE-BF47-B428-5506F14EE476}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{37DE727E-2FB3-5A44-AF18-1EB0A5CC7DDC}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{61032D2E-A79F-2443-B08C-D5216790A5B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1047,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -1061,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
@@ -1075,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -1089,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
@@ -1114,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>76</v>
@@ -1131,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1153,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1164,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1175,7 +1178,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1186,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1197,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1208,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1227,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1278,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1297,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1316,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1327,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1346,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1365,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1416,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1435,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1446,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1457,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1484,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
